--- a/BlazeDemo/target/test-classes/Userinformation.xlsx
+++ b/BlazeDemo/target/test-classes/Userinformation.xlsx
@@ -4,22 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7560"/>
+    <workbookView windowWidth="14880" windowHeight="2805" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Signup" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Contactdetails" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:C6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
   <si>
     <t>mahesh</t>
@@ -32,6 +35,51 @@
   </si>
   <si>
     <t>ravi</t>
+  </si>
+  <si>
+    <t>loginusername</t>
+  </si>
+  <si>
+    <t>loginpassword</t>
+  </si>
+  <si>
+    <t>mailid</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>username11@gmail.com</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Mobile is good</t>
+  </si>
+  <si>
+    <t>username22@gmail.com</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>username33@gmail.com</t>
+  </si>
+  <si>
+    <t>username44@gmail.com</t>
+  </si>
+  <si>
+    <t>prabha</t>
+  </si>
+  <si>
+    <t>Product is good</t>
+  </si>
+  <si>
+    <t>username55@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -39,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,6 +101,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -60,18 +116,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -84,7 +140,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,84 +148,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,14 +171,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,187 +254,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,6 +445,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -411,26 +468,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,15 +487,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -470,15 +498,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,12 +516,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -520,135 +568,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -972,8 +1023,8 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1025,4 +1076,159 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="22.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>456786</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>767898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>457896</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="40.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="21.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="username11@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="username22@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="username33@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="username44@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId5" display="username55@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>